--- a/outputs-HGR-r202-archive/f__Enterobacteriaceae.xlsx
+++ b/outputs-HGR-r202-archive/f__Enterobacteriaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,71 +559,71 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1861.fa</t>
+          <t>even_MAG-GUT43440.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.483671459966804e-06</v>
+        <v>1.071779194839093e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006052617716697024</v>
+        <v>0.0008613058097226647</v>
       </c>
       <c r="D2" t="n">
-        <v>0.006057584986206148</v>
+        <v>0.005155611423923531</v>
       </c>
       <c r="E2" t="n">
-        <v>9.311741922337053e-06</v>
+        <v>3.966373574970056e-05</v>
       </c>
       <c r="F2" t="n">
-        <v>7.634622260669467e-14</v>
+        <v>1.118621412034359e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02552279926684109</v>
+        <v>0.01414035299303882</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0001961621964899405</v>
+        <v>0.0003329522403804442</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0003827577908251141</v>
+        <v>0.00040395809673782</v>
       </c>
       <c r="J2" t="n">
-        <v>1.040802501044747e-05</v>
+        <v>1.251895734106805e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0001635912286191614</v>
+        <v>0.0003605334811098591</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0004090520600371002</v>
+        <v>0.0007033738669868567</v>
       </c>
       <c r="M2" t="n">
-        <v>4.553682529210143e-05</v>
+        <v>0.0001991634721122435</v>
       </c>
       <c r="N2" t="n">
-        <v>8.513428020185652e-05</v>
+        <v>8.924440566368064e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>8.712552092910284e-05</v>
+        <v>0.0001027863837946229</v>
       </c>
       <c r="P2" t="n">
-        <v>4.392359925356873e-05</v>
+        <v>9.872290619835539e-05</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.196589686444558e-08</v>
+        <v>5.006167003982559e-08</v>
       </c>
       <c r="R2" t="n">
-        <v>9.30405776895984e-06</v>
+        <v>2.431310147449298e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8210052086221822</v>
+        <v>0.7912128980808912</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1434268864861932</v>
+        <v>0.1842039773454276</v>
       </c>
       <c r="U2" t="n">
-        <v>0.001932435903124893</v>
+        <v>0.00204785584571668</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8210052086221822</v>
+        <v>0.7912128980808912</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
@@ -639,398 +639,158 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43440.fa</t>
+          <t>even_MAG-GUT49294.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.071779194839093e-05</v>
+        <v>0.01722528475071126</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0008613058097226647</v>
+        <v>0.01504311103160766</v>
       </c>
       <c r="D3" t="n">
-        <v>0.005155611423923531</v>
+        <v>0.03085426517597331</v>
       </c>
       <c r="E3" t="n">
-        <v>3.966373574970056e-05</v>
+        <v>0.00301241496887071</v>
       </c>
       <c r="F3" t="n">
-        <v>1.118621412034359e-13</v>
+        <v>2.150493249622432e-12</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01414035299303882</v>
+        <v>0.1330599710450127</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0003329522403804442</v>
+        <v>0.02549628988327647</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00040395809673782</v>
+        <v>0.1015508897392604</v>
       </c>
       <c r="J3" t="n">
-        <v>1.251895734106805e-05</v>
+        <v>0.0007958901134620475</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0003605334811098591</v>
+        <v>0.1187095437529316</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0007033738669868567</v>
+        <v>0.03177042534821936</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0001991634721122435</v>
+        <v>0.04168055727207762</v>
       </c>
       <c r="N3" t="n">
-        <v>8.924440566368064e-05</v>
+        <v>0.06198203807505256</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0001027863837946229</v>
+        <v>0.09361672620375007</v>
       </c>
       <c r="P3" t="n">
-        <v>9.872290619835539e-05</v>
+        <v>0.0002548747425484968</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.006167003982559e-08</v>
+        <v>4.949150210798939e-05</v>
       </c>
       <c r="R3" t="n">
-        <v>2.431310147449298e-05</v>
+        <v>0.0260971164450182</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7912128980808912</v>
+        <v>0.1300556384024548</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1842039773454276</v>
+        <v>0.07697024569016575</v>
       </c>
       <c r="U3" t="n">
-        <v>0.00204785584571668</v>
+        <v>0.09177522585534865</v>
       </c>
       <c r="V3" t="n">
-        <v>0.7912128980808912</v>
+        <v>0.1330599710450127</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>g__Proteus</t>
+          <t>g__Enterobacter</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>g__Proteus</t>
+          <t>g__Enterobacter(reject)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48773.fa</t>
+          <t>even_MAG-GUT91898.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.986828330994884e-06</v>
+        <v>5.666349849918371e-07</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0004210880206562698</v>
+        <v>0.0002247978637258651</v>
       </c>
       <c r="D4" t="n">
-        <v>0.004773068685530506</v>
+        <v>0.0005045264022662864</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0003417933476072909</v>
+        <v>2.62583190713179e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>6.196438514946409e-14</v>
+        <v>3.104889059675275e-14</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02633322648428816</v>
+        <v>0.005438508324598216</v>
       </c>
       <c r="H4" t="n">
-        <v>9.819163195533738e-05</v>
+        <v>4.73552352101178e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>3.318117603192421e-06</v>
+        <v>5.316895259986875e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>8.897923664427968e-06</v>
+        <v>3.938877979820032e-06</v>
       </c>
       <c r="K4" t="n">
-        <v>0.006965773672553485</v>
+        <v>0.0001348517097244567</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0008195576749172681</v>
+        <v>0.0002459404965874328</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0008991478154245775</v>
+        <v>1.444014565468521e-05</v>
       </c>
       <c r="N4" t="n">
-        <v>3.695407098138643e-05</v>
+        <v>8.81922043862984e-06</v>
       </c>
       <c r="O4" t="n">
-        <v>3.021533011807221e-06</v>
+        <v>1.256687994292176e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>8.193660576048639e-08</v>
+        <v>1.797180384018127e-05</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.808242591540518e-08</v>
+        <v>2.98927850741043e-09</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0004513503122859597</v>
+        <v>1.628461991320539e-05</v>
       </c>
       <c r="S4" t="n">
-        <v>0.03143706009536028</v>
+        <v>0.5523542779706702</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9267303304520276</v>
+        <v>0.4405483694665622</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0006731333147077864</v>
+        <v>0.0003473540869202297</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9267303304520276</v>
+        <v>0.5523542779706702</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>g__Providencia</t>
+          <t>g__Proteus</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
-        <is>
-          <t>g__Providencia</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT49487.fa</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.0001702994756425432</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.001444137508751553</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.003376954302077163</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3.135405318661983e-05</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.790087354747188e-13</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.04150005934279739</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.0008074689708996297</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.001642806839958082</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.0001173455796842293</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.0007053704996165049</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.002193707236256085</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.0004751231782265974</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.0001768168381911362</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.001739861455385428</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.001535270396845667</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.060056320368157e-07</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.0001753928152929647</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.8184417882439211</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.1231990761937379</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.002267061063718393</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.8184417882439211</v>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>g__Proteus</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>g__Proteus</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91702.fa</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4.617693224966134e-08</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.0001415658551520303</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.001778408155462244</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2.908052950754177e-06</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.220568964826322e-14</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.0005915218897224852</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.488175156179388e-05</v>
-      </c>
-      <c r="I6" t="n">
-        <v>8.074973021289906e-07</v>
-      </c>
-      <c r="J6" t="n">
-        <v>8.548209340518526e-08</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.64859859919634e-07</v>
-      </c>
-      <c r="L6" t="n">
-        <v>9.772184484373444e-05</v>
-      </c>
-      <c r="M6" t="n">
-        <v>6.46629911152538e-06</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6.945601951393055e-06</v>
-      </c>
-      <c r="O6" t="n">
-        <v>4.681480806696984e-07</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.313870710316513e-05</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.494934525359113e-09</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.435935621087281e-06</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.5001662546860862</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.4970776926845639</v>
-      </c>
-      <c r="U6" t="n">
-        <v>8.838487664457269e-05</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.5001662546860862</v>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>g__Proteus</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>g__Proteus</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91898.fa</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>5.666349849918371e-07</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0002247978637258651</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.0005045264022662864</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2.62583190713179e-05</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3.104889059675275e-14</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.005438508324598216</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4.73552352101178e-05</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5.316895259986875e-05</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.938877979820032e-06</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.0001348517097244567</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.0002459404965874328</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.444014565468521e-05</v>
-      </c>
-      <c r="N7" t="n">
-        <v>8.81922043862984e-06</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.256687994292176e-05</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.797180384018127e-05</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.98927850741043e-09</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.628461991320539e-05</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.5523542779706702</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.4405483694665622</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.0003473540869202297</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.5523542779706702</v>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>g__Proteus</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
         <is>
           <t>g__Proteus</t>
         </is>
